--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH101"/>
+  <dimension ref="A1:BH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -783,31 +783,31 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.29</v>
@@ -816,116 +816,116 @@
         <v>1.88</v>
       </c>
       <c r="X2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AP2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW2" t="n">
         <v>10</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.06</v>
-      </c>
       <c r="AX2" t="n">
-        <v>1.06</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.06</v>
+        <v>9.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.06</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.06</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.06</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.06</v>
+        <v>20</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.06</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.06</v>
+        <v>11</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.06</v>
+        <v>13.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.06</v>
+        <v>10</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
         <v>1.94</v>
@@ -1968,7 +1968,7 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
         <v>1.85</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3481,10 +3481,10 @@
         <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3.8</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="n">
         <v>1.84</v>
@@ -3875,7 +3875,7 @@
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
         <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
         <v>60</v>
@@ -4150,7 +4150,7 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -4177,7 +4177,7 @@
         <v>19.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,31 +4245,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -4805,14 +4805,14 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,31 +4827,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
         <v>2.38</v>
@@ -5063,7 +5063,7 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -5421,13 +5421,13 @@
         <v>2.78</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H26" t="n">
         <v>2.38</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -5621,10 +5621,10 @@
         <v>1.32</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>950</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="Q27" t="n">
         <v>1.73</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="J32" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -6745,14 +6745,14 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6767,61 +6767,61 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I33" t="n">
         <v>2.02</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.06</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>360</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -6830,123 +6830,123 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BG33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6961,186 +6961,186 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>1.18</v>
+        <v>2.06</v>
       </c>
       <c r="J34" t="n">
-        <v>9.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI34" t="n">
         <v>36</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7155,31 +7155,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.02</v>
+        <v>1.19</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>420</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G36" t="n">
         <v>2.2</v>
@@ -7367,7 +7367,7 @@
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
@@ -7388,7 +7388,7 @@
         <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" t="n">
         <v>1.89</v>
@@ -7400,10 +7400,10 @@
         <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AR36" t="n">
         <v>24</v>
@@ -7478,7 +7478,7 @@
         <v>50</v>
       </c>
       <c r="AT36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU36" t="n">
         <v>7.6</v>
@@ -7505,7 +7505,7 @@
         <v>24</v>
       </c>
       <c r="BC36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BD36" t="n">
         <v>30</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G37" t="n">
         <v>1.59</v>
@@ -7585,10 +7585,10 @@
         <v>2.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R37" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
         <v>2.74</v>
@@ -7597,7 +7597,7 @@
         <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>19.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR37" t="n">
         <v>48</v>
@@ -7678,13 +7678,13 @@
         <v>9.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW37" t="n">
         <v>65</v>
       </c>
       <c r="AX37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AY37" t="n">
         <v>9.199999999999999</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
         <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE38" t="n">
         <v>36</v>
@@ -7854,7 +7854,7 @@
         <v>34</v>
       </c>
       <c r="AP38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>14</v>
@@ -7863,7 +7863,7 @@
         <v>22</v>
       </c>
       <c r="AS38" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT38" t="n">
         <v>10.5</v>
@@ -7887,29 +7887,29 @@
         <v>15</v>
       </c>
       <c r="BA38" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC38" t="n">
         <v>19.5</v>
       </c>
       <c r="BD38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE38" t="n">
         <v>60</v>
       </c>
       <c r="BF38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BG38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
         <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q41" t="n">
         <v>1.98</v>
@@ -8478,7 +8478,7 @@
         <v>21</v>
       </c>
       <c r="BD41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE41" t="n">
         <v>70</v>
@@ -8491,14 +8491,14 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8513,61 +8513,61 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Zlin</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>5.7</v>
+        <v>1.64</v>
       </c>
       <c r="I42" t="n">
-        <v>6.2</v>
+        <v>1.93</v>
       </c>
       <c r="J42" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -8576,123 +8576,123 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY42" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BA42" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BB42" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BC42" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BD42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BE42" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BF42" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BG42" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8707,61 +8707,61 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="G43" t="n">
-        <v>3.15</v>
+        <v>1.61</v>
       </c>
       <c r="H43" t="n">
-        <v>2.52</v>
+        <v>5.6</v>
       </c>
       <c r="I43" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="K43" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>1.64</v>
+        <v>2.92</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -8770,123 +8770,123 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AW43" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AX43" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC43" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BD43" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BE43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BF43" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BG43" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8901,49 +8901,49 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Zlin</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>3.15</v>
       </c>
       <c r="H44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>1.64</v>
       </c>
-      <c r="I44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K44" t="n">
-        <v>950</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -9073,14 +9073,14 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9095,31 +9095,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K45" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -9267,14 +9267,14 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9289,31 +9289,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="G46" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.3</v>
+        <v>420</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -9328,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -9461,14 +9461,14 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9483,31 +9483,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="G47" t="n">
-        <v>1.48</v>
+        <v>2.48</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="I47" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="K47" t="n">
-        <v>540</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -9655,14 +9655,14 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9677,31 +9677,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="G48" t="n">
-        <v>1.38</v>
+        <v>2.22</v>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -9716,11 +9716,11 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q48" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q48" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
@@ -9849,14 +9849,14 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9871,186 +9871,186 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="G49" t="n">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I49" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="J49" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU49" t="n">
         <v>6.6</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
       <c r="AV49" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW49" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX49" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY49" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BA49" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BB49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BC49" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BD49" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE49" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BF49" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BG49" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10065,61 +10065,61 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>1.34</v>
       </c>
       <c r="G50" t="n">
-        <v>2.54</v>
+        <v>1.38</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="J50" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -10128,123 +10128,123 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AQ50" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT50" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU50" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW50" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AX50" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AY50" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AZ50" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BA50" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB50" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BD50" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BE50" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BF50" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BG50" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10259,31 +10259,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -10298,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -10431,14 +10431,14 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10453,31 +10453,31 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="G52" t="n">
-        <v>3.95</v>
+        <v>17.5</v>
       </c>
       <c r="H52" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="I52" t="n">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="J52" t="n">
-        <v>1.39</v>
+        <v>5.5</v>
       </c>
       <c r="K52" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -10492,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -10625,14 +10625,14 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10647,31 +10647,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.44</v>
+        <v>3.3</v>
       </c>
       <c r="G53" t="n">
-        <v>1.71</v>
+        <v>3.95</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>2.44</v>
       </c>
       <c r="I53" t="n">
-        <v>16.5</v>
+        <v>2.78</v>
       </c>
       <c r="J53" t="n">
-        <v>4.1</v>
+        <v>1.39</v>
       </c>
       <c r="K53" t="n">
-        <v>9.6</v>
+        <v>3.15</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -10686,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.18</v>
+        <v>1.07</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.48</v>
+        <v>2.42</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -10819,14 +10819,14 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10841,31 +10841,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -10880,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.89</v>
+        <v>1.02</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11047,7 @@
         <v>2.24</v>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H55" t="n">
         <v>3.15</v>
@@ -11056,7 +11056,7 @@
         <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>3.95</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -11435,19 +11435,19 @@
         <v>1.69</v>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I57" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J57" t="n">
         <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -11656,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -11811,61 +11811,61 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="G59" t="n">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="H59" t="n">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="I59" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="S59" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="T59" t="n">
         <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -11874,123 +11874,123 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>180</v>
+      </c>
+      <c r="AP59" t="n">
         <v>15</v>
       </c>
-      <c r="Z59" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB59" t="n">
+      <c r="AQ59" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU59" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF59" t="n">
+      <c r="AV59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC59" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG59" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU59" t="n">
+      <c r="BD59" t="n">
+        <v>32</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF59" t="n">
         <v>6.8</v>
       </c>
-      <c r="AV59" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>3.25</v>
-      </c>
       <c r="BG59" t="n">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -12005,61 +12005,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.7</v>
+        <v>2.44</v>
       </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="I60" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R60" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -12068,116 +12068,116 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW60" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AX60" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AY60" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AZ60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BA60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB60" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BC60" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BD60" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BE60" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BF60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -12199,58 +12199,58 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="G61" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="H61" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J61" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="R61" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U61" t="n">
         <v>1.9</v>
@@ -12262,123 +12262,123 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AA61" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX61" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG61" t="n">
+      <c r="AY61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD61" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>180</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB61" t="n">
+      <c r="BE61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BG61" t="n">
         <v>11.5</v>
       </c>
-      <c r="BC61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>11</v>
-      </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -12393,61 +12393,61 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="J62" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="K62" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P62" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -12456,123 +12456,123 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AR62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS62" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AT62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU62" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AV62" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW62" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AX62" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC62" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD62" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BE62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF62" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BG62" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -12587,61 +12587,61 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -12650,123 +12650,123 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN63" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AP63" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR63" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS63" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AT63" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW63" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX63" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY63" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA63" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC63" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD63" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BE63" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF63" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BG63" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12781,61 +12781,61 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G64" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="H64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S64" t="n">
         <v>3.05</v>
       </c>
-      <c r="I64" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -12844,116 +12844,116 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP64" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS64" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AT64" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AV64" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AW64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AX64" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BB64" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BC64" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BD64" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BF64" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BG64" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -13147,14 +13147,14 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -13169,61 +13169,61 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G66" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I66" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J66" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R66" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -13232,123 +13232,123 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR66" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AV66" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX66" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AY66" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ66" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BB66" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BC66" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BD66" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BE66" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="BG66" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -13363,61 +13363,61 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R67" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -13426,116 +13426,116 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH67" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN67" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO67" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AQ67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR67" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW67" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AX67" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AZ67" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BA67" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BB67" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BC67" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BD67" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BE67" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BF67" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BG67" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -14154,16 +14154,16 @@
         <v>3.1</v>
       </c>
       <c r="H71" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I71" t="n">
         <v>2.96</v>
       </c>
       <c r="J71" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K71" t="n">
         <v>3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.05</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>2.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P71" t="n">
         <v>1.61</v>
@@ -14229,7 +14229,7 @@
         <v>19</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH71" t="n">
         <v>22</v>
@@ -14265,13 +14265,13 @@
         <v>15</v>
       </c>
       <c r="AS71" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT71" t="n">
         <v>8.6</v>
       </c>
       <c r="AU71" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV71" t="n">
         <v>12</v>
@@ -14304,14 +14304,14 @@
         <v>44</v>
       </c>
       <c r="BF71" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="BG71" t="n">
         <v>40</v>
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -14505,14 +14505,14 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -14522,66 +14522,66 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R73" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -14590,123 +14590,123 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP73" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AQ73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AR73" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT73" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AU73" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW73" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AX73" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AY73" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AZ73" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BA73" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BB73" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BC73" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BD73" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BE73" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BF73" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BG73" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -14721,31 +14721,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="G74" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="I74" t="n">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="J74" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="K74" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -14760,10 +14760,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -14915,31 +14915,31 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="H75" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J75" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="K75" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -14954,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -15087,14 +15087,14 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -15104,36 +15104,36 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -15148,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -15281,14 +15281,14 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -15298,36 +15298,36 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Schweinfurt</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="G77" t="n">
-        <v>1.55</v>
+        <v>9.6</v>
       </c>
       <c r="H77" t="n">
-        <v>2.82</v>
+        <v>1.6</v>
       </c>
       <c r="I77" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="J77" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K77" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -15342,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -15475,14 +15475,14 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -15497,61 +15497,61 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Schweinfurt</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="G78" t="n">
-        <v>9.6</v>
+        <v>3.45</v>
       </c>
       <c r="H78" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="J78" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K78" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -15560,123 +15560,123 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL78" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO78" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP78" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR78" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS78" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT78" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU78" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AV78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW78" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX78" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY78" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BA78" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB78" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BC78" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD78" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE78" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BF78" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BG78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -15686,66 +15686,66 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="G79" t="n">
-        <v>3.45</v>
+        <v>1.89</v>
       </c>
       <c r="H79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q79" t="n">
         <v>2.2</v>
       </c>
-      <c r="I79" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R79" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -15754,123 +15754,123 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z79" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA79" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF79" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG79" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH79" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK79" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL79" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN79" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR79" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT79" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AU79" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AV79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW79" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX79" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY79" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AZ79" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA79" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BB79" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BC79" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BD79" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BE79" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BF79" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BG79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -15885,31 +15885,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.62</v>
+        <v>2.44</v>
       </c>
       <c r="G80" t="n">
-        <v>1.89</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="I80" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K80" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -15924,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,14 +16057,14 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -16079,31 +16079,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.46</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="I81" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="J81" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -16118,10 +16118,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -16251,14 +16251,14 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -16268,36 +16268,36 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="G82" t="n">
-        <v>6.4</v>
+        <v>2.72</v>
       </c>
       <c r="H82" t="n">
-        <v>1.77</v>
+        <v>3.3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.14</v>
+        <v>4.8</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="K82" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -16312,10 +16312,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -16445,14 +16445,14 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -16467,31 +16467,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="H83" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="J83" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K83" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -16506,10 +16506,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -16661,28 +16661,28 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>2.98</v>
       </c>
       <c r="J84" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K84" t="n">
         <v>4.1</v>
@@ -16700,10 +16700,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -16833,14 +16833,14 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -16855,31 +16855,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Univ Catolica (Ecu)</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="G85" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.3</v>
       </c>
-      <c r="I85" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K85" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -16894,10 +16894,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -17049,31 +17049,31 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K86" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -17088,10 +17088,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -17221,14 +17221,14 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -17238,67 +17238,67 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
       <c r="H87" t="n">
-        <v>2.3</v>
+        <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="K87" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P87" t="n">
-        <v>1.4</v>
+        <v>2.26</v>
       </c>
       <c r="Q87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U87" t="n">
         <v>2.38</v>
       </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
-        <v>0</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0</v>
-      </c>
       <c r="V87" t="n">
         <v>0</v>
       </c>
@@ -17306,116 +17306,116 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP87" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AR87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AS87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU87" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV87" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW87" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AX87" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ87" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BA87" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB87" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BC87" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BD87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BE87" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BF87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG87" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
@@ -17609,14 +17609,14 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -17626,66 +17626,66 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.02</v>
+        <v>3.55</v>
       </c>
       <c r="G89" t="n">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="I89" t="n">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.85</v>
+        <v>2.84</v>
       </c>
       <c r="K89" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.73</v>
+        <v>2.78</v>
       </c>
       <c r="R89" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -17694,123 +17694,123 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA89" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH89" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ89" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN89" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AO89" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP89" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AQ89" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AR89" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AT89" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AU89" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV89" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW89" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AX89" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AY89" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AZ89" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BA89" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BB89" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC89" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BD89" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BE89" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BF89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG89" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -17820,36 +17820,36 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J90" t="n">
         <v>3.55</v>
       </c>
-      <c r="G90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K90" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -17864,10 +17864,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -17997,14 +17997,14 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -18014,66 +18014,66 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I91" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="J91" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K91" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R91" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -18082,123 +18082,123 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA91" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE91" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF91" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG91" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH91" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI91" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ91" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK91" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL91" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM91" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN91" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO91" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AQ91" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AR91" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS91" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT91" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AU91" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV91" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW91" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AX91" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AY91" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AZ91" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="BA91" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BB91" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC91" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BD91" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BE91" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BF91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG91" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -18208,36 +18208,36 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Internacional de Bogotá</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="G92" t="n">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="H92" t="n">
-        <v>1.92</v>
+        <v>3.65</v>
       </c>
       <c r="I92" t="n">
-        <v>2.06</v>
+        <v>5.9</v>
       </c>
       <c r="J92" t="n">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="K92" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -18252,10 +18252,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -18385,14 +18385,14 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -18402,36 +18402,36 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.78</v>
+        <v>1.07</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -18579,14 +18579,14 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -18596,33 +18596,33 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Internacional de Bogotá</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="G94" t="n">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="H94" t="n">
-        <v>3.65</v>
+        <v>2.08</v>
       </c>
       <c r="I94" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="J94" t="n">
-        <v>2.76</v>
+        <v>2.24</v>
       </c>
       <c r="K94" t="n">
         <v>5.1</v>
@@ -18640,10 +18640,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -18773,14 +18773,14 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -18790,36 +18790,36 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Barcelona (Ecu)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.07</v>
+        <v>1.69</v>
       </c>
       <c r="Q95" t="n">
         <v>1.01</v>
@@ -18967,14 +18967,14 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -18984,36 +18984,36 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.1</v>
+        <v>1.08</v>
       </c>
       <c r="G96" t="n">
-        <v>4.9</v>
+        <v>1.51</v>
       </c>
       <c r="H96" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="I96" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="J96" t="n">
-        <v>2.24</v>
+        <v>1.07</v>
       </c>
       <c r="K96" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -19028,10 +19028,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -19161,14 +19161,14 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -19178,36 +19178,36 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="G97" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="H97" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I97" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="J97" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -19222,10 +19222,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -19355,14 +19355,14 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -19372,36 +19372,36 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="G98" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="H98" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I98" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J98" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="K98" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -19549,14 +19549,14 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -19566,36 +19566,36 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Univ Catolica (Chile)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="G99" t="n">
-        <v>2.46</v>
+        <v>4.4</v>
       </c>
       <c r="H99" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="I99" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="J99" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K99" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -19610,10 +19610,10 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1.07</v>
+        <v>1.62</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -19743,395 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-27 01:33:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>20:10:00</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Deportivo Cali</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H100" t="n">
-        <v>6</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0</v>
-      </c>
-      <c r="T100" t="n">
-        <v>0</v>
-      </c>
-      <c r="U100" t="n">
-        <v>0</v>
-      </c>
-      <c r="V100" t="n">
-        <v>0</v>
-      </c>
-      <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH100" t="inlineStr">
-        <is>
-          <t>2026-02-27 01:33:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Univ Catolica (Chile)</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G101" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0</v>
-      </c>
-      <c r="T101" t="n">
-        <v>0</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0</v>
-      </c>
-      <c r="V101" t="n">
-        <v>0</v>
-      </c>
-      <c r="W101" t="n">
-        <v>0</v>
-      </c>
-      <c r="X101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH101" t="inlineStr">
-        <is>
-          <t>2026-02-27 01:33:28</t>
+          <t>2026-02-27 04:04:03</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH99"/>
+  <dimension ref="A1:BH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
         <v>2.14</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>4.7</v>
@@ -1547,7 +1547,7 @@
         <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
         <v>1.53</v>
@@ -1956,7 +1956,7 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
         <v>1.94</v>
@@ -2061,10 +2061,10 @@
         <v>10.5</v>
       </c>
       <c r="AY8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>20</v>
       </c>
       <c r="BA8" t="n">
         <v>34</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.59</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3093,19 +3093,19 @@
         <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H14" t="n">
         <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J14" t="n">
         <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>1.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
         <v>1.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3290,13 +3290,13 @@
         <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3478,19 +3478,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
         <v>2.6</v>
@@ -3684,10 +3684,10 @@
         <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -3869,19 +3869,19 @@
         <v>1.76</v>
       </c>
       <c r="G18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -4060,16 +4060,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -4084,10 +4084,10 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1.88</v>
@@ -4096,10 +4096,10 @@
         <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
@@ -4171,7 +4171,7 @@
         <v>11.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR19" t="n">
         <v>19.5</v>
@@ -4186,7 +4186,7 @@
         <v>6.6</v>
       </c>
       <c r="AV19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
         <v>32</v>
@@ -4201,29 +4201,29 @@
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="BE19" t="n">
         <v>38</v>
       </c>
       <c r="BF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BG19" t="n">
         <v>22</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
         <v>2.98</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -5621,10 +5621,10 @@
         <v>1.32</v>
       </c>
       <c r="I27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
         <v>950</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
         <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -6000,13 +6000,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
         <v>6.2</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
         <v>2.42</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
         <v>1.01</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q31" t="n">
         <v>1.01</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
         <v>2.78</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q33" t="n">
         <v>1.7</v>
@@ -6939,14 +6939,14 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6961,61 +6961,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>420</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -7024,123 +7024,123 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AY34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BA34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BE34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BG34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7155,61 +7155,61 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="I35" t="n">
-        <v>1.19</v>
+        <v>2.06</v>
       </c>
       <c r="J35" t="n">
-        <v>9.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>420</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -7218,116 +7218,116 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BG35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
         <v>3.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K36" t="n">
         <v>3.75</v>
@@ -7394,13 +7394,13 @@
         <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
         <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U36" t="n">
         <v>2.24</v>
@@ -7469,13 +7469,13 @@
         <v>14.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AR36" t="n">
         <v>24</v>
       </c>
       <c r="AS36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AT36" t="n">
         <v>9.800000000000001</v>
@@ -7490,7 +7490,7 @@
         <v>34</v>
       </c>
       <c r="AX36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY36" t="n">
         <v>9.800000000000001</v>
@@ -7502,7 +7502,7 @@
         <v>42</v>
       </c>
       <c r="BB36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC36" t="n">
         <v>19.5</v>
@@ -7514,14 +7514,14 @@
         <v>65</v>
       </c>
       <c r="BF36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BG36" t="n">
         <v>34</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -7555,16 +7555,16 @@
         <v>1.57</v>
       </c>
       <c r="G37" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H37" t="n">
         <v>6.4</v>
       </c>
       <c r="I37" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
         <v>4.7</v>
@@ -7636,7 +7636,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
         <v>75</v>
@@ -7651,7 +7651,7 @@
         <v>28</v>
       </c>
       <c r="AM37" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN37" t="n">
         <v>7</v>
@@ -7669,13 +7669,13 @@
         <v>48</v>
       </c>
       <c r="AS37" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AT37" t="n">
         <v>9.6</v>
       </c>
       <c r="AU37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AV37" t="n">
         <v>22</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -7746,13 +7746,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G38" t="n">
         <v>2.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
         <v>3.6</v>
@@ -7887,29 +7887,29 @@
         <v>15</v>
       </c>
       <c r="BA38" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC38" t="n">
         <v>19.5</v>
       </c>
       <c r="BD38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE38" t="n">
         <v>60</v>
       </c>
       <c r="BF38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BG38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
@@ -8167,7 +8167,7 @@
         <v>1.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
         <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q41" t="n">
         <v>1.98</v>
@@ -8457,7 +8457,7 @@
         <v>12</v>
       </c>
       <c r="AW41" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AX41" t="n">
         <v>14.5</v>
@@ -8478,7 +8478,7 @@
         <v>21</v>
       </c>
       <c r="BD41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BE41" t="n">
         <v>70</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
         <v>1.61</v>
       </c>
       <c r="H43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I43" t="n">
         <v>6.2</v>
@@ -8761,7 +8761,7 @@
         <v>1.58</v>
       </c>
       <c r="U43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y43" t="n">
         <v>55</v>
@@ -8782,10 +8782,10 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>24</v>
@@ -8794,10 +8794,10 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
         <v>19</v>
@@ -8806,7 +8806,7 @@
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK43" t="n">
         <v>14.5</v>
@@ -8824,7 +8824,7 @@
         <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>20</v>
@@ -8836,13 +8836,13 @@
         <v>42</v>
       </c>
       <c r="AT43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU43" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV43" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AW43" t="n">
         <v>29</v>
@@ -8854,7 +8854,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA43" t="n">
         <v>27</v>
@@ -8869,17 +8869,17 @@
         <v>17</v>
       </c>
       <c r="BE43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG43" t="n">
         <v>26</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -8910,13 +8910,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G44" t="n">
         <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I44" t="n">
         <v>3.7</v>
@@ -8925,7 +8925,7 @@
         <v>2.94</v>
       </c>
       <c r="K44" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -9073,14 +9073,14 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9095,31 +9095,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="G45" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -9267,14 +9267,14 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9289,31 +9289,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="H46" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K46" t="n">
-        <v>420</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -9328,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -9461,14 +9461,14 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9483,31 +9483,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="G47" t="n">
-        <v>2.48</v>
+        <v>1.48</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>2.78</v>
+        <v>4.6</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>540</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -9655,14 +9655,14 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9677,31 +9677,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.79</v>
+        <v>1.34</v>
       </c>
       <c r="G48" t="n">
-        <v>2.22</v>
+        <v>1.38</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -9849,14 +9849,14 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9871,61 +9871,61 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="G49" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="H49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.35</v>
       </c>
-      <c r="I49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K49" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -9934,123 +9934,123 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW49" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AX49" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AY49" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BE49" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BG49" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10060,36 +10060,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -10237,14 +10237,14 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10259,31 +10259,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.44</v>
+        <v>3.3</v>
       </c>
       <c r="G51" t="n">
-        <v>1.71</v>
+        <v>3.95</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>2.44</v>
       </c>
       <c r="I51" t="n">
-        <v>16.5</v>
+        <v>2.78</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="n">
-        <v>9.6</v>
+        <v>3.15</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -10298,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.18</v>
+        <v>1.07</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.48</v>
+        <v>2.42</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -10431,14 +10431,14 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10453,31 +10453,31 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>11.5</v>
+        <v>1.44</v>
       </c>
       <c r="G52" t="n">
-        <v>17.5</v>
+        <v>1.71</v>
       </c>
       <c r="H52" t="n">
-        <v>1.29</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>1.35</v>
+        <v>16.5</v>
       </c>
       <c r="J52" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="K52" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -10492,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -10625,14 +10625,14 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10647,31 +10647,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="G53" t="n">
-        <v>3.95</v>
+        <v>17.5</v>
       </c>
       <c r="H53" t="n">
-        <v>2.44</v>
+        <v>1.27</v>
       </c>
       <c r="I53" t="n">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="J53" t="n">
-        <v>1.39</v>
+        <v>5.5</v>
       </c>
       <c r="K53" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -10686,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -10819,14 +10819,14 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10836,36 +10836,36 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -10880,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -11013,14 +11013,14 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11030,36 +11030,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="G55" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="H55" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -11207,14 +11207,14 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11229,50 +11229,50 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.12</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.86</v>
-      </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
@@ -11401,14 +11401,14 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11423,31 +11423,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.69</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>5.8</v>
+        <v>1.37</v>
       </c>
       <c r="I57" t="n">
-        <v>7.8</v>
+        <v>1.48</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -11462,10 +11462,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -11595,14 +11595,14 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -11612,184 +11612,184 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="G58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY58" t="n">
         <v>10</v>
       </c>
-      <c r="H58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ58" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BA58" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BB58" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BC58" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BE58" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF58" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BG58" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -11811,61 +11811,61 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.53</v>
+        <v>3.8</v>
       </c>
       <c r="G59" t="n">
-        <v>1.55</v>
+        <v>3.95</v>
       </c>
       <c r="H59" t="n">
-        <v>7.4</v>
+        <v>2.18</v>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>2.22</v>
       </c>
       <c r="J59" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O59" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P59" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="R59" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S59" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="U59" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -11874,123 +11874,123 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Y59" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE59" t="n">
         <v>24</v>
       </c>
-      <c r="Z59" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB59" t="n">
+      <c r="AF59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AR59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF59" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD59" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>180</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BG59" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -12005,61 +12005,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="H60" t="n">
-        <v>2.82</v>
+        <v>7.4</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P60" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -12068,123 +12068,123 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU60" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV60" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AW60" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BE60" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BF60" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BG60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -12199,61 +12199,61 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="G61" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="I61" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="K61" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="R61" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -12262,123 +12262,123 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR61" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT61" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU61" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AV61" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AW61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX61" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AY61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ61" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BA61" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BB61" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC61" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BD61" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="BE61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BF61" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BG61" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -12388,66 +12388,66 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R62" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -12456,123 +12456,123 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK62" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL62" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AR62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AV62" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW62" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AX62" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AY62" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AZ62" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BA62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB62" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BC62" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="BG62" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -12587,61 +12587,61 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="G63" t="n">
-        <v>1.67</v>
+        <v>2.66</v>
       </c>
       <c r="H63" t="n">
-        <v>5.9</v>
+        <v>3.05</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="J63" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K63" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>1.25</v>
       </c>
-      <c r="P63" t="n">
-        <v>2.26</v>
-      </c>
       <c r="Q63" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R63" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -12650,116 +12650,116 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO63" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AQ63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR63" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT63" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU63" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW63" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX63" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY63" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AZ63" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BA63" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BB63" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BC63" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="BD63" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BE63" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BF63" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BG63" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G64" t="n">
         <v>2.32</v>
@@ -12802,10 +12802,10 @@
         <v>3.45</v>
       </c>
       <c r="J64" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -12823,10 +12823,10 @@
         <v>2.12</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="n">
         <v>3.05</v>
@@ -12874,7 +12874,7 @@
         <v>11.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI64" t="n">
         <v>46</v>
@@ -12934,7 +12934,7 @@
         <v>36</v>
       </c>
       <c r="BB64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC64" t="n">
         <v>19.5</v>
@@ -12953,14 +12953,14 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -12975,61 +12975,61 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -13038,123 +13038,123 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS65" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU65" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW65" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX65" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF65" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BG65" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -13169,31 +13169,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="Q66" t="n">
         <v>1.01</v>
@@ -13341,14 +13341,14 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -13358,36 +13358,36 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -13402,10 +13402,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -13535,14 +13535,14 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -13557,31 +13557,31 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="G68" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="H68" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="I68" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J68" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="K68" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -13596,10 +13596,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -13729,14 +13729,14 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -13751,28 +13751,28 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G69" t="n">
         <v>1.41</v>
       </c>
-      <c r="G69" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H69" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="I69" t="n">
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>2.52</v>
+        <v>3.45</v>
       </c>
       <c r="K69" t="n">
         <v>1000</v>
@@ -13790,10 +13790,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -13923,14 +13923,14 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -13945,61 +13945,61 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="G70" t="n">
-        <v>1.41</v>
+        <v>3.15</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="I70" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="J70" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="K70" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P70" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -14008,123 +14008,123 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AP70" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS70" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT70" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AU70" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV70" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW70" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AX70" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BA70" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB70" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC70" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BE70" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BF70" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BG70" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -14134,66 +14134,66 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="G71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J71" t="n">
         <v>3.1</v>
       </c>
-      <c r="H71" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="R71" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -14202,123 +14202,123 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AK71" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL71" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO71" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AR71" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT71" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AU71" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AV71" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW71" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AX71" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AY71" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AZ71" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BA71" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BB71" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BC71" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BD71" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BE71" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BF71" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BG71" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -14328,36 +14328,36 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.97</v>
+        <v>2.58</v>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="I72" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="K72" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -14505,14 +14505,14 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -14527,31 +14527,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -14566,10 +14566,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -14699,14 +14699,14 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -14721,31 +14721,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -14760,10 +14760,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -14910,36 +14910,36 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="G75" t="n">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I75" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J75" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K75" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -14954,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.41</v>
+        <v>2.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.4</v>
+        <v>1.39</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -15087,14 +15087,14 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -15104,36 +15104,36 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Schweinfurt</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="G76" t="n">
-        <v>1.55</v>
+        <v>9.6</v>
       </c>
       <c r="H76" t="n">
-        <v>2.82</v>
+        <v>1.6</v>
       </c>
       <c r="I76" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="J76" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -15148,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -15281,14 +15281,14 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -15303,61 +15303,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Schweinfurt</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="G77" t="n">
-        <v>9.6</v>
+        <v>3.45</v>
       </c>
       <c r="H77" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="I77" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="J77" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K77" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -15366,123 +15366,123 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT77" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU77" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW77" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY77" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BA77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB77" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BC77" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD77" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BF77" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BG77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -15492,66 +15492,66 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="G78" t="n">
-        <v>3.45</v>
+        <v>1.89</v>
       </c>
       <c r="H78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q78" t="n">
         <v>2.2</v>
       </c>
-      <c r="I78" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R78" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -15560,123 +15560,123 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL78" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN78" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO78" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ78" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR78" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT78" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AU78" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AV78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW78" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY78" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AZ78" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA78" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BB78" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BC78" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BD78" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BE78" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BF78" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BG78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -15691,31 +15691,31 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="G79" t="n">
-        <v>1.89</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="I79" t="n">
-        <v>17</v>
+        <v>3.15</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -15730,10 +15730,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -15863,14 +15863,14 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -15885,31 +15885,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H80" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="I80" t="n">
-        <v>3.2</v>
+        <v>1.97</v>
       </c>
       <c r="J80" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -15924,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,14 +16057,14 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -16074,36 +16074,36 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Univ Catolica (Ecu)</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="G81" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="I81" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="J81" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K81" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -16118,10 +16118,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -16273,31 +16273,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G82" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -16312,10 +16312,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -16661,31 +16661,31 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>2.72</v>
       </c>
       <c r="H84" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="I84" t="n">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="J84" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="K84" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -16700,10 +16700,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -16833,14 +16833,14 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -16855,31 +16855,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>2.3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="J85" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -16894,10 +16894,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -17027,14 +17027,14 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -17044,66 +17044,66 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="K86" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P86" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -17112,116 +17112,116 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AP86" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR86" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AT86" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AU86" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV86" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AW86" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX86" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA86" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB86" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BC86" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD86" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BE86" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BF86" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BG86" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -17255,7 +17255,7 @@
         <v>2.02</v>
       </c>
       <c r="G87" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H87" t="n">
         <v>3.85</v>
@@ -17264,10 +17264,10 @@
         <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -17276,16 +17276,16 @@
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O87" t="n">
         <v>1.25</v>
       </c>
       <c r="P87" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R87" t="n">
         <v>1.5</v>
@@ -17294,7 +17294,7 @@
         <v>2.8</v>
       </c>
       <c r="T87" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U87" t="n">
         <v>2.38</v>
@@ -17321,7 +17321,7 @@
         <v>11.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD87" t="n">
         <v>17.5</v>
@@ -17348,10 +17348,10 @@
         <v>21</v>
       </c>
       <c r="AL87" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM87" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
         <v>12</v>
@@ -17369,7 +17369,7 @@
         <v>24</v>
       </c>
       <c r="AS87" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AT87" t="n">
         <v>10</v>
@@ -17381,7 +17381,7 @@
         <v>14</v>
       </c>
       <c r="AW87" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AX87" t="n">
         <v>12.5</v>
@@ -17390,7 +17390,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA87" t="n">
         <v>38</v>
@@ -17405,7 +17405,7 @@
         <v>24</v>
       </c>
       <c r="BE87" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF87" t="n">
         <v>10</v>
@@ -17415,14 +17415,14 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -17432,33 +17432,33 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="G88" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="I88" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J88" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K88" t="n">
         <v>3.2</v>
@@ -17467,31 +17467,31 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="R88" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -17500,123 +17500,123 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH88" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ88" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN88" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO88" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AQ88" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AR88" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT88" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AU88" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AV88" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AW88" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AX88" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AY88" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AZ88" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BA88" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BB88" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BC88" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BD88" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BE88" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BF88" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BG88" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -17626,36 +17626,36 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J89" t="n">
         <v>3.55</v>
       </c>
-      <c r="G89" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K89" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -17803,14 +17803,14 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -17820,36 +17820,36 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>2.28</v>
       </c>
       <c r="G90" t="n">
-        <v>4.9</v>
+        <v>2.56</v>
       </c>
       <c r="H90" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="I90" t="n">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="J90" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K90" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -17864,10 +17864,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.15</v>
+        <v>1.79</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -17997,14 +17997,14 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -18019,31 +18019,31 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Internacional de Bogotá</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="G91" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="H91" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I91" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="J91" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="K91" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -18058,10 +18058,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -18191,14 +18191,14 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -18208,36 +18208,36 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Internacional de Bogotá</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -18252,10 +18252,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -18385,14 +18385,14 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -18402,36 +18402,36 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -18579,14 +18579,14 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -18601,31 +18601,31 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Barcelona (Ecu)</t>
         </is>
       </c>
       <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.1</v>
       </c>
-      <c r="G94" t="n">
+      <c r="I94" t="n">
         <v>4.9</v>
       </c>
-      <c r="H94" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.84</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="K94" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -18640,10 +18640,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -18773,14 +18773,14 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -18790,36 +18790,36 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="G95" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="I95" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J95" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K95" t="n">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.69</v>
+        <v>1.07</v>
       </c>
       <c r="Q95" t="n">
         <v>1.01</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
@@ -18989,31 +18989,31 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.08</v>
+        <v>2.42</v>
       </c>
       <c r="G96" t="n">
-        <v>1.51</v>
+        <v>2.48</v>
       </c>
       <c r="H96" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I96" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J96" t="n">
-        <v>1.07</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -19028,10 +19028,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -19161,14 +19161,14 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -19178,36 +19178,36 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="G97" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="H97" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>3.85</v>
+        <v>7.8</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K97" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -19222,10 +19222,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -19355,14 +19355,14 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -19372,36 +19372,36 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Univ Catolica (Chile)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.72</v>
+        <v>2.96</v>
       </c>
       <c r="G98" t="n">
-        <v>1.83</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="I98" t="n">
-        <v>7.8</v>
+        <v>2.82</v>
       </c>
       <c r="J98" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="K98" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -19549,201 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-27 04:04:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Univ Catolica (Chile)</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G99" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" t="n">
-        <v>0</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0</v>
-      </c>
-      <c r="V99" t="n">
-        <v>0</v>
-      </c>
-      <c r="W99" t="n">
-        <v>0</v>
-      </c>
-      <c r="X99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH99" t="inlineStr">
-        <is>
-          <t>2026-02-27 04:04:03</t>
+          <t>2026-02-27 06:34:35</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
@@ -765,7 +765,7 @@
         <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -783,28 +783,28 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -813,22 +813,22 @@
         <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
         <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -840,22 +840,22 @@
         <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
         <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
         <v>48</v>
@@ -864,7 +864,7 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>70</v>
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="AT2" t="n">
         <v>7.6</v>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
@@ -903,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="BB2" t="n">
         <v>19</v>
@@ -912,20 +912,20 @@
         <v>20</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="BF2" t="n">
         <v>13.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
         <v>2.42</v>
@@ -1261,7 +1261,7 @@
         <v>3.65</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="AR4" t="n">
         <v>14</v>
@@ -1282,10 +1282,10 @@
         <v>3.8</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>3.7</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.35</v>
+        <v>9.4</v>
       </c>
       <c r="AZ4" t="n">
         <v>11.5</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
         <v>2.92</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>2.14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
         <v>2.96</v>
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
         <v>1.39</v>
@@ -1780,10 +1780,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>8.199999999999999</v>
@@ -1935,7 +1935,7 @@
         <v>1.52</v>
       </c>
       <c r="I8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1974,10 +1974,10 @@
         <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -2016,7 +2016,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
@@ -2031,7 +2031,7 @@
         <v>180</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AP8" t="n">
         <v>13.5</v>
@@ -2043,7 +2043,7 @@
         <v>7.8</v>
       </c>
       <c r="AS8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
         <v>22</v>
@@ -2070,26 +2070,26 @@
         <v>34</v>
       </c>
       <c r="BB8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BE8" t="n">
         <v>18.5</v>
       </c>
-      <c r="BC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>17.5</v>
-      </c>
       <c r="BF8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="BG8" t="n">
         <v>8</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -2228,52 +2228,52 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AT9" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV9" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW9" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="AY9" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BB9" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BC9" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BE9" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF9" t="n">
         <v>1.01</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -2422,52 +2422,52 @@
         <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AR10" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS10" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW10" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AY10" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA10" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BB10" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BC10" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BD10" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BE10" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF10" t="n">
         <v>1.01</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -2732,22 +2732,22 @@
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
@@ -2756,25 +2756,25 @@
         <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>70</v>
@@ -2783,19 +2783,19 @@
         <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
         <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>38</v>
@@ -2816,10 +2816,10 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="AT12" t="n">
         <v>8.4</v>
@@ -2831,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2852,20 +2852,20 @@
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="BF12" t="n">
         <v>8.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -3016,40 +3016,40 @@
         <v>50</v>
       </c>
       <c r="AT13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY13" t="n">
         <v>8.6</v>
       </c>
-      <c r="AU13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB13" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BE13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BF13" t="n">
         <v>1.01</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
@@ -3102,7 +3102,7 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -3117,22 +3117,22 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
         <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
         <v>2.12</v>
@@ -3192,7 +3192,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
         <v>42</v>
@@ -3207,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT14" t="n">
         <v>9</v>
@@ -3231,16 +3231,16 @@
         <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>21</v>
       </c>
       <c r="BD14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE14" t="n">
         <v>8</v>
@@ -3249,11 +3249,11 @@
         <v>16.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
         <v>1.77</v>
@@ -3293,13 +3293,13 @@
         <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.22</v>
@@ -3308,28 +3308,28 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
         <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
@@ -3338,116 +3338,116 @@
         <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="n">
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>14</v>
       </c>
-      <c r="AD15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="BA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
       </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BG15" t="n">
-        <v>18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
         <v>2.2</v>
@@ -3508,10 +3508,10 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
         <v>1.49</v>
@@ -3520,7 +3520,7 @@
         <v>2.64</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.4</v>
@@ -3553,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
         <v>18.5</v>
@@ -3583,10 +3583,10 @@
         <v>14.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ16" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>13</v>
@@ -3628,7 +3628,7 @@
         <v>17</v>
       </c>
       <c r="BD16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BE16" t="n">
         <v>4.1</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
         <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
         <v>3.15</v>
@@ -3687,7 +3687,7 @@
         <v>2.9</v>
       </c>
       <c r="K17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
         <v>2.34</v>
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -3890,13 +3890,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
         <v>1.86</v>
@@ -3974,52 +3974,52 @@
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AR18" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AS18" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT18" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV18" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AW18" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="AX18" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY18" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA18" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BD18" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BE18" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF18" t="n">
         <v>1.01</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -4060,16 +4060,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
         <v>1.55</v>
@@ -4108,10 +4108,10 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -4147,7 +4147,7 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>32</v>
@@ -4177,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="AS19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AT19" t="n">
         <v>12.5</v>
@@ -4213,7 +4213,7 @@
         <v>25</v>
       </c>
       <c r="BE19" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="BF19" t="n">
         <v>11.5</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         <v>1.89</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -4556,52 +4556,52 @@
         <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AU21" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AV21" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW21" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AX21" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA21" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="BB21" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="BC21" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BD21" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BE21" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF21" t="n">
         <v>1.01</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -4642,28 +4642,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
         <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
         <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N22" t="n">
         <v>2.6</v>
@@ -4672,7 +4672,7 @@
         <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
         <v>2.52</v>
@@ -4687,19 +4687,19 @@
         <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>28</v>
@@ -4708,22 +4708,22 @@
         <v>95</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -4750,62 +4750,62 @@
         <v>90</v>
       </c>
       <c r="AP22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AR22" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="AS22" t="n">
-        <v>4.2</v>
+        <v>2.12</v>
       </c>
       <c r="AT22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU22" t="n">
         <v>3.7</v>
       </c>
-      <c r="AU22" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AV22" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="BA22" t="n">
-        <v>3.05</v>
+        <v>1.82</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="BD22" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="BE22" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="BF22" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="BG22" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -4839,16 +4839,16 @@
         <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>6.4</v>
@@ -4860,13 +4860,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -4875,7 +4875,7 @@
         <v>1.08</v>
       </c>
       <c r="S23" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -4887,7 +4887,7 @@
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4944,52 +4944,52 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AS23" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV23" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW23" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="AX23" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY23" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BA23" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB23" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BD23" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BE23" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF23" t="n">
         <v>1.01</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G24" t="n">
         <v>1.34</v>
@@ -5042,7 +5042,7 @@
         <v>14.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K24" t="n">
         <v>7.6</v>
@@ -5051,7 +5051,7 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
         <v>6.6</v>
@@ -5063,7 +5063,7 @@
         <v>2.96</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R24" t="n">
         <v>1.79</v>
@@ -5072,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
         <v>1.07</v>
@@ -5162,7 +5162,7 @@
         <v>5.2</v>
       </c>
       <c r="AX24" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -5174,7 +5174,7 @@
         <v>5.1</v>
       </c>
       <c r="BB24" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="BC24" t="n">
         <v>10.5</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -5421,13 +5421,13 @@
         <v>1.9</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
         <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -5451,7 +5451,7 @@
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
@@ -5460,19 +5460,19 @@
         <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
@@ -5532,10 +5532,10 @@
         <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AS26" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AT26" t="n">
         <v>5.9</v>
@@ -5544,44 +5544,44 @@
         <v>6.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW26" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BA26" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB26" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BC26" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BD26" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BE26" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BF26" t="n">
         <v>17</v>
       </c>
       <c r="BG26" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5651,7 +5651,7 @@
         <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
         <v>1.8</v>
@@ -5675,7 +5675,7 @@
         <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
         <v>15.5</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
         <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -6042,7 +6042,7 @@
         <v>2.52</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U29" t="n">
         <v>1.01</v>
@@ -6108,52 +6108,52 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AR29" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AT29" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AV29" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AX29" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AZ29" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="BA29" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BB29" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BD29" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BE29" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="BF29" t="n">
         <v>1.01</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="I30" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -6218,34 +6218,34 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
         <v>2.72</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W30" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -6302,52 +6302,52 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR30" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS30" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AT30" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV30" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW30" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AZ30" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BB30" t="n">
-        <v>75</v>
+        <v>1.01</v>
       </c>
       <c r="BC30" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BD30" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BE30" t="n">
-        <v>55</v>
+        <v>1.01</v>
       </c>
       <c r="BF30" t="n">
         <v>1.01</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>1.14</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="K31" t="n">
         <v>14.5</v>
@@ -6418,10 +6418,10 @@
         <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>2.54</v>
+        <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="R31" t="n">
         <v>1.53</v>
@@ -6433,7 +6433,7 @@
         <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="V31" t="n">
         <v>8</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
         <v>2.12</v>
@@ -6591,7 +6591,7 @@
         <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -6615,7 +6615,7 @@
         <v>2.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
         <v>1.47</v>
@@ -6636,10 +6636,10 @@
         <v>1.9</v>
       </c>
       <c r="X32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>17</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
         <v>28</v>
@@ -6657,7 +6657,7 @@
         <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="n">
         <v>14</v>
@@ -6675,7 +6675,7 @@
         <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL32" t="n">
         <v>30</v>
@@ -6708,7 +6708,7 @@
         <v>8</v>
       </c>
       <c r="AV32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AW32" t="n">
         <v>34</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
         <v>2.18</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
         <v>3.75</v>
@@ -6833,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
         <v>26</v>
@@ -6905,7 +6905,7 @@
         <v>14</v>
       </c>
       <c r="AW33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AX33" t="n">
         <v>12.5</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.58</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.59</v>
       </c>
       <c r="H34" t="n">
         <v>6.4</v>
@@ -6997,7 +6997,7 @@
         <v>5.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
         <v>2.42</v>
@@ -7021,7 +7021,7 @@
         <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -7057,7 +7057,7 @@
         <v>19.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
         <v>14.5</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G35" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
@@ -7197,7 +7197,7 @@
         <v>1.96</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
@@ -7212,10 +7212,10 @@
         <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
         <v>13.5</v>
@@ -7239,7 +7239,7 @@
         <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF35" t="n">
         <v>16.5</v>
@@ -7317,7 +7317,7 @@
         <v>34</v>
       </c>
       <c r="BE35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BF35" t="n">
         <v>20</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
         <v>3.15</v>
       </c>
       <c r="G36" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>2.52</v>
@@ -7370,7 +7370,7 @@
         <v>2.62</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="K36" t="n">
         <v>3.35</v>
@@ -7409,7 +7409,7 @@
         <v>1.61</v>
       </c>
       <c r="W36" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -7466,52 +7466,52 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ36" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AR36" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AS36" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="AT36" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU36" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AV36" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW36" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="AX36" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AY36" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AZ36" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA36" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="BB36" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="BC36" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BD36" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BE36" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF36" t="n">
         <v>1.01</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -7660,52 +7660,52 @@
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ37" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AR37" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AS37" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT37" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV37" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AW37" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AX37" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY37" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ37" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BA37" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB37" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC37" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BD37" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BE37" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF37" t="n">
         <v>1.01</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -7746,22 +7746,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="G38" t="n">
         <v>6.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I38" t="n">
         <v>1.87</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -7770,28 +7770,28 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.2</v>
+        <v>1.28</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V38" t="n">
         <v>2.14</v>
@@ -7800,7 +7800,7 @@
         <v>1.18</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
         <v>8.800000000000001</v>
@@ -7851,7 +7851,7 @@
         <v>160</v>
       </c>
       <c r="AO38" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AP38" t="n">
         <v>3.3</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H39" t="n">
         <v>6.2</v>
@@ -7958,19 +7958,19 @@
         <v>5.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q39" t="n">
         <v>1.46</v>
@@ -7979,7 +7979,7 @@
         <v>1.82</v>
       </c>
       <c r="S39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T39" t="n">
         <v>1.61</v>
@@ -8006,7 +8006,7 @@
         <v>160</v>
       </c>
       <c r="AB39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
         <v>12</v>
@@ -8027,7 +8027,7 @@
         <v>17.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
         <v>16</v>
@@ -8075,7 +8075,7 @@
         <v>11.5</v>
       </c>
       <c r="AY39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ39" t="n">
         <v>16.5</v>
@@ -8084,13 +8084,13 @@
         <v>50</v>
       </c>
       <c r="BB39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC39" t="n">
         <v>13</v>
       </c>
       <c r="BD39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BE39" t="n">
         <v>55</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>110</v>
+        <v>5.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -8158,22 +8158,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O40" t="n">
         <v>1.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="R40" t="n">
         <v>1.08</v>
       </c>
       <c r="S40" t="n">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -8182,10 +8182,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G41" t="n">
         <v>2.44</v>
@@ -8337,13 +8337,13 @@
         <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="K41" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -8376,7 +8376,7 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W41" t="n">
         <v>1.69</v>
@@ -8436,52 +8436,52 @@
         <v>1000</v>
       </c>
       <c r="AP41" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ41" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AR41" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AS41" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="AT41" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV41" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW41" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="AX41" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY41" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ41" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA41" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BB41" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BC41" t="n">
-        <v>19.5</v>
+        <v>1.01</v>
       </c>
       <c r="BD41" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BE41" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
       <c r="BF41" t="n">
         <v>1.01</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
         <v>5.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>6</v>
@@ -8740,22 +8740,22 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -8824,52 +8824,52 @@
         <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ43" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR43" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AS43" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT43" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV43" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AW43" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="AX43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY43" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ43" t="n">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="BA43" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BB43" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BC43" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BD43" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BE43" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF43" t="n">
         <v>1.01</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G44" t="n">
         <v>1.38</v>
@@ -8958,7 +8958,7 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
         <v>3.2</v>
@@ -9018,52 +9018,52 @@
         <v>1000</v>
       </c>
       <c r="AP44" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ44" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="AR44" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
       <c r="AS44" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="AT44" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU44" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AV44" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="AW44" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="AX44" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY44" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AZ44" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BA44" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="BB44" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BC44" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="BD44" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BE44" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="BF44" t="n">
         <v>1.01</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -9298,170 +9298,170 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>330</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>570</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP46" t="n">
         <v>14</v>
       </c>
-      <c r="G46" t="n">
-        <v>21</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AQ46" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AV46" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AW46" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AX46" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="AY46" t="n">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="AZ46" t="n">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="BA46" t="n">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="BB46" t="n">
         <v>1.01</v>
       </c>
       <c r="BC46" t="n">
-        <v>1.01</v>
+        <v>85</v>
       </c>
       <c r="BD46" t="n">
-        <v>1.01</v>
+        <v>160</v>
       </c>
       <c r="BE46" t="n">
-        <v>1.01</v>
+        <v>180</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.01</v>
+        <v>85</v>
       </c>
       <c r="BG46" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -9686,170 +9686,170 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="H48" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="J48" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K48" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S48" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AP48" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ48" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AR48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS48" t="n">
-        <v>38</v>
+        <v>4.7</v>
       </c>
       <c r="AT48" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU48" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY48" t="n">
         <v>10</v>
       </c>
-      <c r="AW48" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AZ48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA48" t="n">
-        <v>40</v>
+        <v>4.7</v>
       </c>
       <c r="BB48" t="n">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="BC48" t="n">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="BD48" t="n">
-        <v>30</v>
+        <v>4.7</v>
       </c>
       <c r="BE48" t="n">
-        <v>50</v>
+        <v>4.9</v>
       </c>
       <c r="BF48" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BG48" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -9904,19 +9904,19 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P49" t="n">
         <v>2.14</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="R49" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S49" t="n">
         <v>2.96</v>
@@ -9925,7 +9925,7 @@
         <v>1.67</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V49" t="n">
         <v>1.4</v>
@@ -9934,116 +9934,116 @@
         <v>1.72</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y49" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL49" t="n">
         <v>34</v>
       </c>
-      <c r="AA49" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC49" t="n">
+      <c r="AM49" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ49" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD49" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>2.06</v>
-      </c>
       <c r="AR49" t="n">
-        <v>2.14</v>
+        <v>7.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AU49" t="n">
-        <v>1.91</v>
+        <v>7.4</v>
       </c>
       <c r="AV49" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AW49" t="n">
-        <v>2.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX49" t="n">
-        <v>2.06</v>
+        <v>12</v>
       </c>
       <c r="AY49" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AZ49" t="n">
-        <v>2.08</v>
+        <v>6.8</v>
       </c>
       <c r="BA49" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="BB49" t="n">
-        <v>2.18</v>
+        <v>8.4</v>
       </c>
       <c r="BC49" t="n">
-        <v>2.14</v>
+        <v>7.6</v>
       </c>
       <c r="BD49" t="n">
-        <v>2.18</v>
+        <v>8.6</v>
       </c>
       <c r="BE49" t="n">
-        <v>2.24</v>
+        <v>10</v>
       </c>
       <c r="BF49" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="BG49" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -10074,170 +10074,170 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="G50" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H50" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I50" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K50" t="n">
         <v>4.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P50" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R50" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S50" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T50" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V50" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X50" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI50" t="n">
         <v>34</v>
       </c>
-      <c r="Y50" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z50" t="n">
+      <c r="AJ50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL50" t="n">
         <v>30</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AM50" t="n">
         <v>60</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AN50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>970</v>
+      </c>
+      <c r="AP50" t="n">
         <v>21</v>
       </c>
-      <c r="AC50" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AQ50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR50" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE50" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AS50" t="n">
-        <v>2.28</v>
+        <v>8.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.12</v>
+        <v>12.5</v>
       </c>
       <c r="AU50" t="n">
-        <v>2.02</v>
+        <v>8.6</v>
       </c>
       <c r="AV50" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="AW50" t="n">
-        <v>2.22</v>
+        <v>20</v>
       </c>
       <c r="AX50" t="n">
-        <v>2.18</v>
+        <v>15.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>2.08</v>
+        <v>10.5</v>
       </c>
       <c r="AZ50" t="n">
-        <v>2.12</v>
+        <v>13</v>
       </c>
       <c r="BA50" t="n">
-        <v>2.26</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB50" t="n">
-        <v>2.26</v>
+        <v>8</v>
       </c>
       <c r="BC50" t="n">
-        <v>2.2</v>
+        <v>18.5</v>
       </c>
       <c r="BD50" t="n">
-        <v>2.24</v>
+        <v>8</v>
       </c>
       <c r="BE50" t="n">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF50" t="n">
-        <v>2.36</v>
+        <v>10.5</v>
       </c>
       <c r="BG50" t="n">
-        <v>2.36</v>
+        <v>13</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -10268,170 +10268,170 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="G51" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I51" t="n">
         <v>6.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P51" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V51" t="n">
         <v>1.18</v>
       </c>
       <c r="W51" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
       </c>
       <c r="AP51" t="n">
-        <v>9.199999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="AQ51" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AR51" t="n">
-        <v>29</v>
+        <v>4.7</v>
       </c>
       <c r="AS51" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="AT51" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AU51" t="n">
         <v>7</v>
       </c>
       <c r="AV51" t="n">
-        <v>18.5</v>
+        <v>4.3</v>
       </c>
       <c r="AW51" t="n">
-        <v>60</v>
+        <v>4.9</v>
       </c>
       <c r="AX51" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="AY51" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="AZ51" t="n">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="BA51" t="n">
-        <v>90</v>
+        <v>4.9</v>
       </c>
       <c r="BB51" t="n">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="BC51" t="n">
-        <v>18.5</v>
+        <v>4.3</v>
       </c>
       <c r="BD51" t="n">
-        <v>42</v>
+        <v>4.7</v>
       </c>
       <c r="BE51" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="BF51" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="BG51" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J52" t="n">
         <v>2.96</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G53" t="n">
         <v>1.62</v>
@@ -10671,19 +10671,19 @@
         <v>4.4</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L53" t="n">
         <v>1.29</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
         <v>2.3</v>
@@ -10692,16 +10692,16 @@
         <v>1.63</v>
       </c>
       <c r="R53" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S53" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V53" t="n">
         <v>1.17</v>
@@ -10710,116 +10710,116 @@
         <v>2.6</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z53" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB53" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AE53" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM53" t="n">
         <v>95</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AN53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>22</v>
       </c>
-      <c r="AK53" t="n">
+      <c r="AR53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BD53" t="n">
         <v>22</v>
       </c>
-      <c r="AL53" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>1.95</v>
-      </c>
       <c r="BE53" t="n">
-        <v>2.04</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF53" t="n">
-        <v>2.04</v>
+        <v>6.4</v>
       </c>
       <c r="BG53" t="n">
-        <v>2.04</v>
+        <v>50</v>
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -10850,22 +10850,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="I54" t="n">
         <v>1.7</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.32</v>
@@ -10874,19 +10874,19 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.23</v>
       </c>
       <c r="R54" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
         <v>2.46</v>
@@ -10904,116 +10904,116 @@
         <v>1.2</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y54" t="n">
         <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="n">
         <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AP54" t="n">
-        <v>16.5</v>
+        <v>2.24</v>
       </c>
       <c r="AQ54" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU54" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AR54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AV54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW54" t="n">
-        <v>12.5</v>
+        <v>2.22</v>
       </c>
       <c r="AX54" t="n">
-        <v>29</v>
+        <v>2.36</v>
       </c>
       <c r="AY54" t="n">
-        <v>17.5</v>
+        <v>2.26</v>
       </c>
       <c r="AZ54" t="n">
-        <v>16</v>
+        <v>2.26</v>
       </c>
       <c r="BA54" t="n">
-        <v>24</v>
+        <v>2.32</v>
       </c>
       <c r="BB54" t="n">
-        <v>95</v>
+        <v>2.46</v>
       </c>
       <c r="BC54" t="n">
-        <v>46</v>
+        <v>2.38</v>
       </c>
       <c r="BD54" t="n">
-        <v>42</v>
+        <v>2.38</v>
       </c>
       <c r="BE54" t="n">
-        <v>60</v>
+        <v>2.46</v>
       </c>
       <c r="BF54" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="BG54" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
         <v>2.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R55" t="n">
         <v>1.46</v>
@@ -11152,52 +11152,52 @@
         <v>1000</v>
       </c>
       <c r="AP55" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AQ55" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR55" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS55" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AT55" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AU55" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV55" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW55" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AX55" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AY55" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ55" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA55" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BB55" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BC55" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BD55" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="BE55" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BF55" t="n">
         <v>1.01</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G56" t="n">
         <v>1.76</v>
@@ -11247,7 +11247,7 @@
         <v>5.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J56" t="n">
         <v>4.1</v>
@@ -11268,22 +11268,22 @@
         <v>1.26</v>
       </c>
       <c r="P56" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q56" t="n">
         <v>1.78</v>
       </c>
       <c r="R56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S56" t="n">
         <v>2.96</v>
       </c>
       <c r="T56" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="U56" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V56" t="n">
         <v>1.22</v>
@@ -11337,7 +11337,7 @@
         <v>30</v>
       </c>
       <c r="AM56" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN56" t="n">
         <v>9.6</v>
@@ -11355,7 +11355,7 @@
         <v>36</v>
       </c>
       <c r="AS56" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AT56" t="n">
         <v>8.800000000000001</v>
@@ -11367,7 +11367,7 @@
         <v>18</v>
       </c>
       <c r="AW56" t="n">
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="AX56" t="n">
         <v>10</v>
@@ -11379,7 +11379,7 @@
         <v>17</v>
       </c>
       <c r="BA56" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BB56" t="n">
         <v>16.5</v>
@@ -11397,11 +11397,11 @@
         <v>8.6</v>
       </c>
       <c r="BG56" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -11647,7 +11647,7 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
         <v>3.35</v>
@@ -11659,7 +11659,7 @@
         <v>1.79</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R58" t="n">
         <v>1.31</v>
@@ -11671,7 +11671,7 @@
         <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V58" t="n">
         <v>1.45</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
         <v>34</v>
       </c>
       <c r="Y59" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
         <v>90</v>
@@ -11904,19 +11904,19 @@
         <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
         <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK59" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
         <v>1000</v>
@@ -11928,62 +11928,62 @@
         <v>1000</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.96</v>
+        <v>1.45</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AU59" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="AV59" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AW59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AX59" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="AY59" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="BA59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="BB59" t="n">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="BC59" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="BD59" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="BE59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="BF59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="BG59" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12232,7 +12232,7 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="O61" t="n">
         <v>1.19</v>
@@ -12256,7 +12256,7 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W61" t="n">
         <v>1.69</v>
@@ -12316,52 +12316,52 @@
         <v>1000</v>
       </c>
       <c r="AP61" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AQ61" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AR61" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS61" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="AT61" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV61" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW61" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AX61" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AY61" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ61" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA61" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BB61" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BC61" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BD61" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BE61" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BF61" t="n">
         <v>1.01</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G63" t="n">
         <v>2.78</v>
@@ -12605,7 +12605,7 @@
         <v>3.15</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J63" t="n">
         <v>3.05</v>
@@ -12629,7 +12629,7 @@
         <v>1.64</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R63" t="n">
         <v>1.19</v>
@@ -12641,7 +12641,7 @@
         <v>1.01</v>
       </c>
       <c r="U63" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="V63" t="n">
         <v>1.36</v>
@@ -12650,7 +12650,7 @@
         <v>1.58</v>
       </c>
       <c r="X63" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y63" t="n">
         <v>15</v>
@@ -12707,59 +12707,59 @@
         <v>2.32</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AR63" t="n">
         <v>15</v>
       </c>
       <c r="AS63" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AW63" t="n">
         <v>2.68</v>
       </c>
-      <c r="AT63" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AW63" t="n">
+      <c r="AX63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BB63" t="n">
         <v>2.64</v>
       </c>
-      <c r="AX63" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>2.62</v>
-      </c>
       <c r="BC63" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="BD63" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="BE63" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="BF63" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="BG63" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12802,7 +12802,7 @@
         <v>4.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K64" t="n">
         <v>3.5</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -12987,10 +12987,10 @@
         <v>3.7</v>
       </c>
       <c r="G65" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I65" t="n">
         <v>2.24</v>
@@ -13050,7 +13050,7 @@
         <v>28</v>
       </c>
       <c r="AB65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC65" t="n">
         <v>7.8</v>
@@ -13059,7 +13059,7 @@
         <v>10.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF65" t="n">
         <v>25</v>
@@ -13071,7 +13071,7 @@
         <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="n">
         <v>75</v>
@@ -13086,7 +13086,7 @@
         <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO65" t="n">
         <v>18</v>
@@ -13116,7 +13116,7 @@
         <v>21</v>
       </c>
       <c r="AX65" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY65" t="n">
         <v>14</v>
@@ -13137,17 +13137,17 @@
         <v>48</v>
       </c>
       <c r="BE65" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BF65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BG65" t="n">
         <v>16</v>
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G66" t="n">
         <v>1.54</v>
@@ -13187,7 +13187,7 @@
         <v>7.2</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J66" t="n">
         <v>4.6</v>
@@ -13241,7 +13241,7 @@
         <v>65</v>
       </c>
       <c r="AA66" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB66" t="n">
         <v>8.6</v>
@@ -13283,7 +13283,7 @@
         <v>7.6</v>
       </c>
       <c r="AO66" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP66" t="n">
         <v>15.5</v>
@@ -13295,10 +13295,10 @@
         <v>55</v>
       </c>
       <c r="AS66" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU66" t="n">
         <v>9.4</v>
@@ -13307,7 +13307,7 @@
         <v>25</v>
       </c>
       <c r="AW66" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AX66" t="n">
         <v>8</v>
@@ -13331,7 +13331,7 @@
         <v>32</v>
       </c>
       <c r="BE66" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BF66" t="n">
         <v>7</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -13372,40 +13372,40 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="H67" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J67" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="K67" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L67" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.81</v>
+        <v>1.27</v>
       </c>
       <c r="O67" t="n">
         <v>1.32</v>
       </c>
       <c r="P67" t="n">
-        <v>1.81</v>
+        <v>1.27</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R67" t="n">
         <v>1.27</v>
@@ -13420,10 +13420,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W67" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -13480,52 +13480,52 @@
         <v>1000</v>
       </c>
       <c r="AP67" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AQ67" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR67" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AS67" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="AT67" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV67" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AW67" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AX67" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AY67" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ67" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA67" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BB67" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BC67" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="BD67" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BE67" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
       <c r="BF67" t="n">
         <v>1.01</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13566,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="G68" t="n">
         <v>2.74</v>
@@ -13581,7 +13581,7 @@
         <v>2.54</v>
       </c>
       <c r="K68" t="n">
-        <v>410</v>
+        <v>950</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -13868,52 +13868,52 @@
         <v>1000</v>
       </c>
       <c r="AP69" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AQ69" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR69" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AS69" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT69" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AU69" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV69" t="n">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AW69" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="AX69" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY69" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ69" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BA69" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB69" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC69" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BD69" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BE69" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF69" t="n">
         <v>1.01</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -13957,10 +13957,10 @@
         <v>1.64</v>
       </c>
       <c r="G70" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I70" t="n">
         <v>6.2</v>
@@ -13984,22 +13984,22 @@
         <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R70" t="n">
         <v>1.48</v>
       </c>
       <c r="S70" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T70" t="n">
         <v>1.83</v>
       </c>
       <c r="U70" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V70" t="n">
         <v>1.19</v>
@@ -14008,7 +14008,7 @@
         <v>2.52</v>
       </c>
       <c r="X70" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y70" t="n">
         <v>23</v>
@@ -14023,16 +14023,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC70" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE70" t="n">
         <v>75</v>
       </c>
       <c r="AF70" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG70" t="n">
         <v>9.800000000000001</v>
@@ -14044,7 +14044,7 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK70" t="n">
         <v>15.5</v>
@@ -14062,10 +14062,10 @@
         <v>80</v>
       </c>
       <c r="AP70" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR70" t="n">
         <v>44</v>
@@ -14086,7 +14086,7 @@
         <v>65</v>
       </c>
       <c r="AX70" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY70" t="n">
         <v>9.4</v>
@@ -14095,7 +14095,7 @@
         <v>18.5</v>
       </c>
       <c r="BA70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB70" t="n">
         <v>14.5</v>
@@ -14104,7 +14104,7 @@
         <v>14.5</v>
       </c>
       <c r="BD70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE70" t="n">
         <v>75</v>
@@ -14113,11 +14113,11 @@
         <v>7.6</v>
       </c>
       <c r="BG70" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -14160,10 +14160,10 @@
         <v>3.5</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K71" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.34</v>
@@ -14172,34 +14172,34 @@
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.27</v>
       </c>
       <c r="P71" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R71" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S71" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U71" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V71" t="n">
         <v>1.4</v>
       </c>
       <c r="W71" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X71" t="n">
         <v>16.5</v>
@@ -14217,7 +14217,7 @@
         <v>11.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD71" t="n">
         <v>14</v>
@@ -14256,7 +14256,7 @@
         <v>32</v>
       </c>
       <c r="AP71" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>13.5</v>
@@ -14301,17 +14301,17 @@
         <v>30</v>
       </c>
       <c r="BE71" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BF71" t="n">
         <v>14</v>
       </c>
       <c r="BG71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -14360,16 +14360,16 @@
         <v>4.1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P72" t="n">
         <v>1.91</v>
@@ -14378,134 +14378,134 @@
         <v>1.78</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -14551,155 +14551,155 @@
         <v>4.3</v>
       </c>
       <c r="K73" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P73" t="n">
         <v>1.97</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -14730,10 +14730,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>14</v>
@@ -14742,158 +14742,158 @@
         <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q74" t="n">
         <v>1.74</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL74" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AN74" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP74" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT74" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AU74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX74" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AY74" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB74" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BC74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BD74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF74" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BG74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -14939,10 +14939,10 @@
         <v>2.98</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M75" t="n">
         <v>1.12</v>
@@ -14972,37 +14972,37 @@
         <v>1.91</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X75" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y75" t="n">
         <v>8.6</v>
       </c>
       <c r="Z75" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA75" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB75" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC75" t="n">
         <v>6.6</v>
       </c>
       <c r="AD75" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF75" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG75" t="n">
         <v>14</v>
@@ -15014,40 +15014,40 @@
         <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK75" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL75" t="n">
         <v>70</v>
       </c>
       <c r="AM75" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN75" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO75" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP75" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AR75" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT75" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV75" t="n">
         <v>12</v>
@@ -15059,13 +15059,13 @@
         <v>17.5</v>
       </c>
       <c r="AY75" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ75" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB75" t="n">
         <v>48</v>
@@ -15074,20 +15074,20 @@
         <v>38</v>
       </c>
       <c r="BD75" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BE75" t="n">
         <v>44</v>
       </c>
       <c r="BF75" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="BG75" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -15127,161 +15127,161 @@
         <v>4.1</v>
       </c>
       <c r="I76" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K76" t="n">
         <v>3.65</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P76" t="n">
         <v>1.64</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL76" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN76" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AP76" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR76" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AS76" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AT76" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AU76" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV76" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AW76" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BA76" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BC76" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD76" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BE76" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF76" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BG76" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -15330,16 +15330,16 @@
         <v>3.25</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P77" t="n">
         <v>1.57</v>
@@ -15348,134 +15348,134 @@
         <v>2.52</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG77" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -15506,34 +15506,34 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G78" t="n">
         <v>1.95</v>
       </c>
       <c r="H78" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I78" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J78" t="n">
         <v>3.2</v>
       </c>
       <c r="K78" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P78" t="n">
         <v>1.52</v>
@@ -15542,134 +15542,134 @@
         <v>2.66</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -15700,170 +15700,170 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P79" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R79" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q79" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AR79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS79" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT79" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AU79" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AV79" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AX79" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB79" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BD79" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -15894,7 +15894,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="G80" t="n">
         <v>1.55</v>
@@ -15906,22 +15906,22 @@
         <v>1000</v>
       </c>
       <c r="J80" t="n">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="K80" t="n">
         <v>1000</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P80" t="n">
         <v>2.38</v>
@@ -15930,134 +15930,134 @@
         <v>1.39</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -16106,16 +16106,16 @@
         <v>5.2</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
         <v>2.14</v>
@@ -16124,134 +16124,134 @@
         <v>1.64</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP81" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR81" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT81" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AU81" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV81" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AW81" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AX81" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AY81" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA81" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB81" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BC81" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD81" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE81" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -16285,22 +16285,22 @@
         <v>3.5</v>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H82" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I82" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K82" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M82" t="n">
         <v>1.04</v>
@@ -16315,7 +16315,7 @@
         <v>2.52</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R82" t="n">
         <v>1.62</v>
@@ -16330,19 +16330,19 @@
         <v>2.68</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y82" t="n">
         <v>14.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA82" t="n">
         <v>28</v>
@@ -16351,37 +16351,37 @@
         <v>19.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD82" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE82" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG82" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH82" t="n">
         <v>14.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ82" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK82" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL82" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM82" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN82" t="n">
         <v>23</v>
@@ -16399,13 +16399,13 @@
         <v>15</v>
       </c>
       <c r="AS82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT82" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV82" t="n">
         <v>10</v>
@@ -16414,38 +16414,38 @@
         <v>18</v>
       </c>
       <c r="AX82" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AY82" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ82" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BA82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB82" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BC82" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BD82" t="n">
         <v>32</v>
       </c>
       <c r="BE82" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="BF82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG82" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -16479,7 +16479,7 @@
         <v>1.74</v>
       </c>
       <c r="G83" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>5.4</v>
@@ -16506,10 +16506,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -16673,13 +16673,13 @@
         <v>2.48</v>
       </c>
       <c r="G84" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H84" t="n">
         <v>2.9</v>
       </c>
       <c r="I84" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
         <v>3.65</v>
@@ -16688,152 +16688,152 @@
         <v>3.9</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P84" t="n">
         <v>2.2</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AS84" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AU84" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AV84" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AW84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AX84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AY84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BA84" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BB84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BC84" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BD84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BE84" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BF84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BG84" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -16867,31 +16867,31 @@
         <v>4.5</v>
       </c>
       <c r="G85" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I85" t="n">
         <v>1.98</v>
       </c>
       <c r="J85" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K85" t="n">
         <v>4.1</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P85" t="n">
         <v>1.86</v>
@@ -16900,134 +16900,134 @@
         <v>1.97</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP85" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS85" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT85" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW85" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX85" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AY85" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA85" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB85" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BC85" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD85" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE85" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BF85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -17064,16 +17064,16 @@
         <v>3.7</v>
       </c>
       <c r="H86" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="I86" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="J86" t="n">
         <v>2.92</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -17673,7 +17673,7 @@
         <v>1.57</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -18028,10 +18028,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H91" t="n">
         <v>3</v>
@@ -18058,7 +18058,7 @@
         <v>1.46</v>
       </c>
       <c r="P91" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q91" t="n">
         <v>2.4</v>
@@ -18091,7 +18091,7 @@
         <v>19</v>
       </c>
       <c r="AA91" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB91" t="n">
         <v>9.199999999999999</v>
@@ -18106,7 +18106,7 @@
         <v>42</v>
       </c>
       <c r="AF91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG91" t="n">
         <v>13</v>
@@ -18115,7 +18115,7 @@
         <v>21</v>
       </c>
       <c r="AI91" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ91" t="n">
         <v>44</v>
@@ -18133,16 +18133,16 @@
         <v>38</v>
       </c>
       <c r="AO91" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AP91" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AQ91" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AR91" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AS91" t="n">
         <v>44</v>
@@ -18166,7 +18166,7 @@
         <v>11.5</v>
       </c>
       <c r="AZ91" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA91" t="n">
         <v>48</v>
@@ -18181,17 +18181,17 @@
         <v>46</v>
       </c>
       <c r="BE91" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BF91" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BG91" t="n">
         <v>36</v>
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -18234,7 +18234,7 @@
         <v>4.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K92" t="n">
         <v>3.95</v>
@@ -18246,7 +18246,7 @@
         <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O92" t="n">
         <v>1.24</v>
@@ -18255,10 +18255,10 @@
         <v>2.26</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R92" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S92" t="n">
         <v>2.8</v>
@@ -18351,7 +18351,7 @@
         <v>14</v>
       </c>
       <c r="AW92" t="n">
-        <v>36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX92" t="n">
         <v>12.5</v>
@@ -18381,11 +18381,11 @@
         <v>10</v>
       </c>
       <c r="BG92" t="n">
-        <v>30</v>
+        <v>7.8</v>
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
         <v>4.9</v>
       </c>
       <c r="H94" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="I94" t="n">
         <v>2.06</v>
@@ -18640,10 +18640,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -18804,13 +18804,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G95" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H95" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I95" t="n">
         <v>3.75</v>
@@ -18819,7 +18819,7 @@
         <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -18834,10 +18834,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
         <v>1.69</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19774,13 +19774,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="G100" t="n">
         <v>1.55</v>
       </c>
       <c r="H100" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I100" t="n">
         <v>1000</v>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="Q100" t="n">
         <v>1.01</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -19968,10 +19968,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G101" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H101" t="n">
         <v>3.5</v>
@@ -20001,7 +20001,7 @@
         <v>1.47</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -20192,10 +20192,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-27 14:06:21</t>
+          <t>2026-02-27 16:37:01</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-01.xlsx
@@ -765,7 +765,7 @@
         <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
         <v>3.95</v>
@@ -774,7 +774,7 @@
         <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -786,22 +786,22 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.88</v>
@@ -813,7 +813,7 @@
         <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2.42</v>
@@ -1162,7 +1162,7 @@
         <v>2.76</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -1171,7 +1171,7 @@
         <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>4.5</v>
@@ -1183,7 +1183,7 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
@@ -1201,7 +1201,7 @@
         <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -1261,13 +1261,13 @@
         <v>3.7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>3.65</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.95</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>3.45</v>
@@ -1276,13 +1276,13 @@
         <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>3.8</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.7</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>9.4</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
         <v>2.16</v>
@@ -1395,7 +1395,7 @@
         <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -2138,7 +2138,7 @@
         <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -2168,10 +2168,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2320,10 +2320,10 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -2344,7 +2344,7 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.53</v>
@@ -2356,13 +2356,13 @@
         <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
         <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
         <v>1.28</v>
@@ -2398,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
@@ -2422,7 +2422,7 @@
         <v>9.4</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AQ10" t="n">
         <v>11</v>
@@ -2431,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AT10" t="n">
         <v>18.5</v>
@@ -2446,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
         <v>15</v>
@@ -2458,26 +2458,26 @@
         <v>19</v>
       </c>
       <c r="BB10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC10" t="n">
         <v>4.1</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BD10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF10" t="n">
         <v>4</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>3.9</v>
       </c>
       <c r="BG10" t="n">
         <v>5.9</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>2.64</v>
@@ -2523,7 +2523,7 @@
         <v>2.42</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>85</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2532,7 +2532,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I12" t="n">
         <v>1.53</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
@@ -2947,7 +2947,7 @@
         <v>2.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
         <v>1.18</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P14" t="n">
         <v>1.18</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
         <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>5.9</v>
@@ -3299,7 +3299,7 @@
         <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.38</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -3478,13 +3478,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
         <v>3.25</v>
@@ -3493,7 +3493,7 @@
         <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
@@ -3502,28 +3502,28 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
         <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
         <v>1.44</v>
@@ -3532,22 +3532,22 @@
         <v>1.74</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
         <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>13.5</v>
@@ -3559,10 +3559,10 @@
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>38</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
@@ -3580,22 +3580,22 @@
         <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>14.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AT16" t="n">
         <v>12.5</v>
@@ -3607,41 +3607,41 @@
         <v>12.5</v>
       </c>
       <c r="AW16" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AX16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>9.800000000000001</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>19.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="BE16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BF16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG16" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -3687,13 +3687,13 @@
         <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -3705,7 +3705,7 @@
         <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>1.41</v>
@@ -3717,7 +3717,7 @@
         <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
         <v>1.25</v>
@@ -3747,7 +3747,7 @@
         <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4168,52 +4168,52 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ19" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR19" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="AS19" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AV19" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AW19" t="n">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY19" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA19" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BB19" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC19" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="BD19" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BE19" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF19" t="n">
         <v>1.01</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4284,10 +4284,10 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
         <v>1.49</v>
@@ -4296,7 +4296,7 @@
         <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="U20" t="n">
         <v>2.4</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
         <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
         <v>2.12</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4666,13 +4666,13 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>1.07</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.11</v>
@@ -4696,13 +4696,13 @@
         <v>2.28</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
         <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="n">
         <v>120</v>
@@ -4717,7 +4717,7 @@
         <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
         <v>16</v>
@@ -4729,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -4750,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
         <v>1.55</v>
@@ -5272,10 +5272,10 @@
         <v>2.48</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
@@ -5341,7 +5341,7 @@
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AT25" t="n">
         <v>12.5</v>
@@ -5377,17 +5377,17 @@
         <v>25</v>
       </c>
       <c r="BE25" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BF25" t="n">
         <v>11.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="I26" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.32</v>
@@ -5442,7 +5442,7 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="O26" t="n">
         <v>1.23</v>
@@ -5466,10 +5466,10 @@
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6236,10 +6236,10 @@
         <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
         <v>1.07</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
         <v>3.15</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H34" t="n">
         <v>2.52</v>
@@ -7021,7 +7021,7 @@
         <v>1.61</v>
       </c>
       <c r="W34" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
         <v>2.12</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>3.8</v>
@@ -7206,7 +7206,7 @@
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
         <v>2.4</v>
@@ -7305,7 +7305,7 @@
         <v>15.5</v>
       </c>
       <c r="BA35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BB35" t="n">
         <v>24</v>
@@ -7320,14 +7320,14 @@
         <v>65</v>
       </c>
       <c r="BF35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BG35" t="n">
         <v>30</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G36" t="n">
         <v>1.59</v>
@@ -7397,10 +7397,10 @@
         <v>1.56</v>
       </c>
       <c r="S36" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
         <v>2.2</v>
@@ -7487,7 +7487,7 @@
         <v>22</v>
       </c>
       <c r="AW36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX36" t="n">
         <v>9.6</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -7746,16 +7746,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G38" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.45</v>
@@ -7794,22 +7794,22 @@
         <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W38" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
         <v>11</v>
@@ -7860,7 +7860,7 @@
         <v>11.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AS38" t="n">
         <v>44</v>
@@ -7893,23 +7893,23 @@
         <v>30</v>
       </c>
       <c r="BC38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD38" t="n">
         <v>34</v>
       </c>
       <c r="BE38" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BF38" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BG38" t="n">
         <v>27</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G41" t="n">
         <v>6.2</v>
@@ -8337,7 +8337,7 @@
         <v>1.76</v>
       </c>
       <c r="I41" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="J41" t="n">
         <v>3.7</v>
@@ -8370,13 +8370,13 @@
         <v>2.72</v>
       </c>
       <c r="T41" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
         <v>1.22</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8528,16 +8528,16 @@
         <v>3.05</v>
       </c>
       <c r="H42" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I42" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -8552,7 +8552,7 @@
         <v>1.26</v>
       </c>
       <c r="P42" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" t="n">
         <v>1.79</v>
@@ -8570,13 +8570,13 @@
         <v>2.34</v>
       </c>
       <c r="V42" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W42" t="n">
         <v>1.48</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
         <v>15</v>
@@ -8591,7 +8591,7 @@
         <v>15.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>14.5</v>
@@ -8606,7 +8606,7 @@
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI42" t="n">
         <v>42</v>
@@ -8621,7 +8621,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="n">
         <v>27</v>
@@ -8630,7 +8630,7 @@
         <v>24</v>
       </c>
       <c r="AP42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ42" t="n">
         <v>11.5</v>
@@ -8639,7 +8639,7 @@
         <v>16.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AT42" t="n">
         <v>12</v>
@@ -8663,19 +8663,19 @@
         <v>13.5</v>
       </c>
       <c r="BA42" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BB42" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BC42" t="n">
         <v>23</v>
       </c>
       <c r="BD42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BE42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BF42" t="n">
         <v>17</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -8910,22 +8910,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="H44" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I44" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L44" t="n">
         <v>1.25</v>
@@ -8934,10 +8934,10 @@
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
         <v>3.1</v>
@@ -8949,19 +8949,19 @@
         <v>1.85</v>
       </c>
       <c r="S44" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T44" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U44" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V44" t="n">
         <v>1.16</v>
       </c>
       <c r="W44" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X44" t="n">
         <v>32</v>
@@ -8970,10 +8970,10 @@
         <v>38</v>
       </c>
       <c r="Z44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA44" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB44" t="n">
         <v>14.5</v>
@@ -9000,28 +9000,28 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL44" t="n">
         <v>24</v>
       </c>
       <c r="AM44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN44" t="n">
         <v>4.7</v>
       </c>
       <c r="AO44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP44" t="n">
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR44" t="n">
         <v>55</v>
@@ -9033,10 +9033,10 @@
         <v>13.5</v>
       </c>
       <c r="AU44" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW44" t="n">
         <v>55</v>
@@ -9048,7 +9048,7 @@
         <v>10</v>
       </c>
       <c r="AZ44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA44" t="n">
         <v>50</v>
@@ -9069,11 +9069,11 @@
         <v>4.5</v>
       </c>
       <c r="BG44" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v>1.7</v>
       </c>
       <c r="I45" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="J45" t="n">
         <v>1.01</v>
@@ -9152,7 +9152,7 @@
         <v>1.71</v>
       </c>
       <c r="V45" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W45" t="n">
         <v>1.18</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.81</v>
+        <v>1.46</v>
       </c>
       <c r="G49" t="n">
         <v>2.44</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
@@ -10304,7 +10304,7 @@
         <v>1.96</v>
       </c>
       <c r="R51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
         <v>3.35</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -10850,16 +10850,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="G54" t="n">
         <v>3.45</v>
       </c>
       <c r="H54" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I54" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="J54" t="n">
         <v>3.05</v>
@@ -10898,10 +10898,10 @@
         <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="W54" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X54" t="n">
         <v>11</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
         <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
@@ -11346,7 +11346,7 @@
         <v>30</v>
       </c>
       <c r="AP56" t="n">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AQ56" t="n">
         <v>11.5</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G58" t="n">
         <v>1.58</v>
@@ -11641,7 +11641,7 @@
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L58" t="n">
         <v>1.29</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
         <v>3.65</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
         <v>1.3</v>
@@ -11853,7 +11853,7 @@
         <v>2.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R59" t="n">
         <v>1.46</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
         <v>1.22</v>
       </c>
       <c r="S60" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T60" t="n">
         <v>2.14</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -12208,22 +12208,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="G61" t="n">
-        <v>11</v>
+        <v>740</v>
       </c>
       <c r="H61" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="I61" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="J61" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K61" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -12250,16 +12250,16 @@
         <v>2.06</v>
       </c>
       <c r="T61" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U61" t="n">
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="W61" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X61" t="n">
         <v>44</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -12814,16 +12814,16 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="O64" t="n">
         <v>1.46</v>
       </c>
       <c r="P64" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="R64" t="n">
         <v>1.19</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -13178,16 +13178,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="G66" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I66" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J66" t="n">
         <v>3.15</v>
@@ -13199,7 +13199,7 @@
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N66" t="n">
         <v>3.35</v>
@@ -13226,40 +13226,40 @@
         <v>1.9</v>
       </c>
       <c r="V66" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="W66" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z66" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA66" t="n">
         <v>50</v>
       </c>
       <c r="AB66" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC66" t="n">
         <v>7.4</v>
       </c>
       <c r="AD66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE66" t="n">
         <v>36</v>
       </c>
       <c r="AF66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>17.5</v>
@@ -13268,34 +13268,34 @@
         <v>50</v>
       </c>
       <c r="AJ66" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK66" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL66" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM66" t="n">
         <v>120</v>
       </c>
       <c r="AN66" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP66" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AR66" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AT66" t="n">
         <v>9.199999999999999</v>
@@ -13307,7 +13307,7 @@
         <v>11.5</v>
       </c>
       <c r="AW66" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AX66" t="n">
         <v>15.5</v>
@@ -13319,7 +13319,7 @@
         <v>15</v>
       </c>
       <c r="BA66" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="BB66" t="n">
         <v>10</v>
@@ -13328,20 +13328,20 @@
         <v>9.4</v>
       </c>
       <c r="BD66" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE66" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BF66" t="n">
         <v>21</v>
       </c>
       <c r="BG66" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -13375,28 +13375,28 @@
         <v>1.51</v>
       </c>
       <c r="G67" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H67" t="n">
         <v>6.2</v>
       </c>
       <c r="I67" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K67" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O67" t="n">
         <v>1.21</v>
@@ -13408,10 +13408,10 @@
         <v>1.52</v>
       </c>
       <c r="R67" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S67" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="T67" t="n">
         <v>1.65</v>
@@ -13423,7 +13423,7 @@
         <v>1.15</v>
       </c>
       <c r="W67" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X67" t="n">
         <v>24</v>
@@ -13477,7 +13477,7 @@
         <v>6.2</v>
       </c>
       <c r="AO67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP67" t="n">
         <v>3.95</v>
@@ -13486,16 +13486,16 @@
         <v>4</v>
       </c>
       <c r="AR67" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AT67" t="n">
         <v>5.7</v>
       </c>
       <c r="AU67" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AV67" t="n">
         <v>4.8</v>
@@ -13519,7 +13519,7 @@
         <v>6.4</v>
       </c>
       <c r="BC67" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BD67" t="n">
         <v>4.1</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -13590,16 +13590,16 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="O68" t="n">
         <v>1.43</v>
       </c>
       <c r="P68" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="R68" t="n">
         <v>1.17</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
         <v>1.56</v>
       </c>
       <c r="W69" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X69" t="n">
         <v>10.5</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14148,7 +14148,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G71" t="n">
         <v>1.76</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14539,16 +14539,16 @@
         <v>2.5</v>
       </c>
       <c r="G73" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>2.96</v>
       </c>
       <c r="I73" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="K73" t="n">
         <v>3.35</v>
@@ -14584,10 +14584,10 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="W73" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G74" t="n">
         <v>2.16</v>
@@ -14760,10 +14760,10 @@
         <v>1.45</v>
       </c>
       <c r="P74" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R74" t="n">
         <v>1.25</v>
@@ -14772,7 +14772,7 @@
         <v>4.6</v>
       </c>
       <c r="T74" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U74" t="n">
         <v>1.9</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -14969,7 +14969,7 @@
         <v>1.84</v>
       </c>
       <c r="U75" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V75" t="n">
         <v>1.8</v>
@@ -14978,7 +14978,7 @@
         <v>1.35</v>
       </c>
       <c r="X75" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y75" t="n">
         <v>9.6</v>
@@ -15077,17 +15077,17 @@
         <v>48</v>
       </c>
       <c r="BE75" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BF75" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BG75" t="n">
         <v>16</v>
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -15151,7 +15151,7 @@
         <v>2.26</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R76" t="n">
         <v>1.49</v>
@@ -15172,7 +15172,7 @@
         <v>2.52</v>
       </c>
       <c r="X76" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y76" t="n">
         <v>22</v>
@@ -15187,16 +15187,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD76" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE76" t="n">
         <v>75</v>
       </c>
       <c r="AF76" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG76" t="n">
         <v>9.800000000000001</v>
@@ -15208,7 +15208,7 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK76" t="n">
         <v>15.5</v>
@@ -15250,19 +15250,19 @@
         <v>65</v>
       </c>
       <c r="AX76" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AY76" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ76" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB76" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BC76" t="n">
         <v>14.5</v>
@@ -15271,17 +15271,17 @@
         <v>29</v>
       </c>
       <c r="BE76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BF76" t="n">
         <v>7.6</v>
       </c>
       <c r="BG76" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
         <v>2.24</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I77" t="n">
         <v>3.6</v>
@@ -15465,7 +15465,7 @@
         <v>30</v>
       </c>
       <c r="BE77" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BF77" t="n">
         <v>13.5</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -15509,16 +15509,16 @@
         <v>1.67</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H78" t="n">
         <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>6.4</v>
@@ -15554,10 +15554,10 @@
         <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W78" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -15918,10 +15918,10 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P80" t="n">
         <v>2.32</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -16324,10 +16324,10 @@
         <v>2.84</v>
       </c>
       <c r="T82" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="U82" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="V82" t="n">
         <v>1.12</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -16670,10 +16670,10 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G84" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3.15</v>
       </c>
       <c r="H84" t="n">
         <v>2.86</v>
@@ -16694,34 +16694,34 @@
         <v>1.12</v>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O84" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P84" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R84" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S84" t="n">
         <v>5.2</v>
       </c>
       <c r="T84" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U84" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V84" t="n">
         <v>1.52</v>
       </c>
       <c r="W84" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X84" t="n">
         <v>8.800000000000001</v>
@@ -16748,7 +16748,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG84" t="n">
         <v>14</v>
@@ -16766,10 +16766,10 @@
         <v>44</v>
       </c>
       <c r="AL84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM84" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN84" t="n">
         <v>50</v>
@@ -16787,7 +16787,7 @@
         <v>15.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT84" t="n">
         <v>8.800000000000001</v>
@@ -16802,7 +16802,7 @@
         <v>34</v>
       </c>
       <c r="AX84" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY84" t="n">
         <v>13</v>
@@ -16826,14 +16826,14 @@
         <v>44</v>
       </c>
       <c r="BF84" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="BG84" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -16906,7 +16906,7 @@
         <v>4.3</v>
       </c>
       <c r="T85" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U85" t="n">
         <v>1.84</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -17067,7 +17067,7 @@
         <v>2.88</v>
       </c>
       <c r="I86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
         <v>3.1</v>
@@ -17079,13 +17079,13 @@
         <v>1.01</v>
       </c>
       <c r="M86" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="O86" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P86" t="n">
         <v>1.57</v>
@@ -17094,10 +17094,10 @@
         <v>2.52</v>
       </c>
       <c r="R86" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="S86" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -17106,7 +17106,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W86" t="n">
         <v>1.5</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -17446,170 +17446,170 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="G88" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H88" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I88" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W88" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X88" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>290</v>
+      </c>
+      <c r="AP88" t="n">
         <v>6.6</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S88" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V88" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W88" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AQ88" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.01</v>
+        <v>150</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AU88" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AV88" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AW88" t="n">
-        <v>1.01</v>
+        <v>90</v>
       </c>
       <c r="AX88" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AY88" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AZ88" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BA88" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="BB88" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BC88" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="BD88" t="n">
-        <v>1.01</v>
+        <v>44</v>
       </c>
       <c r="BE88" t="n">
-        <v>1.01</v>
+        <v>180</v>
       </c>
       <c r="BF88" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="BG88" t="n">
-        <v>1.01</v>
+        <v>170</v>
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
         <v>1.55</v>
       </c>
       <c r="H89" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
         <v>1000</v>
@@ -17655,7 +17655,7 @@
         <v>4.8</v>
       </c>
       <c r="K89" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
@@ -17676,7 +17676,7 @@
         <v>1.39</v>
       </c>
       <c r="R89" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S89" t="n">
         <v>2.02</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G90" t="n">
         <v>6.6</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -18222,7 +18222,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G92" t="n">
         <v>1.9</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -18485,7 +18485,7 @@
         <v>18.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD93" t="n">
         <v>18</v>
@@ -18524,10 +18524,10 @@
         <v>1000</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AR93" t="n">
         <v>2.1</v>
@@ -18536,25 +18536,25 @@
         <v>2.18</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AU93" t="n">
         <v>7.4</v>
       </c>
       <c r="AV93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY93" t="n">
         <v>2</v>
       </c>
-      <c r="AW93" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>1.99</v>
-      </c>
       <c r="AZ93" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="BA93" t="n">
         <v>2.16</v>
@@ -18563,23 +18563,23 @@
         <v>2.16</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BE93" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="BG93" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -18810,13 +18810,13 @@
         <v>4.9</v>
       </c>
       <c r="H95" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I95" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J95" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="K95" t="n">
         <v>110</v>
@@ -18828,7 +18828,7 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="O95" t="n">
         <v>1.49</v>
@@ -18852,10 +18852,10 @@
         <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="W95" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X95" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -19106,52 +19106,52 @@
         <v>1000</v>
       </c>
       <c r="AP96" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ96" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR96" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AS96" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="AT96" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU96" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV96" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW96" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AX96" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY96" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AZ96" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="BA96" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BB96" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BC96" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BD96" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BE96" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF96" t="n">
         <v>1.01</v>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -19234,7 +19234,7 @@
         <v>7.2</v>
       </c>
       <c r="T97" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="U97" t="n">
         <v>1.59</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -19395,10 +19395,10 @@
         <v>3.55</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J98" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="K98" t="n">
         <v>3.9</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G100" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H100" t="n">
         <v>3</v>
@@ -19792,7 +19792,7 @@
         <v>3.2</v>
       </c>
       <c r="L100" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M100" t="n">
         <v>1.11</v>
@@ -19819,16 +19819,16 @@
         <v>1.99</v>
       </c>
       <c r="U100" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V100" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W100" t="n">
         <v>1.53</v>
       </c>
       <c r="X100" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y100" t="n">
         <v>9.800000000000001</v>
@@ -19909,7 +19909,7 @@
         <v>15.5</v>
       </c>
       <c r="AY100" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ100" t="n">
         <v>19.5</v>
@@ -19933,11 +19933,11 @@
         <v>32</v>
       </c>
       <c r="BG100" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20076,7 @@
         <v>36</v>
       </c>
       <c r="AP101" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ101" t="n">
         <v>16</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20186,19 +20186,19 @@
         <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="O102" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R102" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S102" t="n">
         <v>5.3</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20359,7 +20359,7 @@
         <v>4.1</v>
       </c>
       <c r="G103" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>1.92</v>
@@ -20380,22 +20380,22 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="O103" t="n">
         <v>1.28</v>
       </c>
       <c r="P103" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R103" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S103" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T103" t="n">
         <v>1.01</v>
@@ -20407,52 +20407,52 @@
         <v>1.98</v>
       </c>
       <c r="W103" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X103" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y103" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z103" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB103" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC103" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE103" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF103" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG103" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH103" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI103" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ103" t="n">
         <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL103" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM103" t="n">
         <v>1000</v>
@@ -20464,62 +20464,62 @@
         <v>1000</v>
       </c>
       <c r="AP103" t="n">
-        <v>13.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>8.199999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="AR103" t="n">
-        <v>9.4</v>
+        <v>2.16</v>
       </c>
       <c r="AS103" t="n">
-        <v>17.5</v>
+        <v>2.28</v>
       </c>
       <c r="AT103" t="n">
-        <v>13</v>
+        <v>2.22</v>
       </c>
       <c r="AU103" t="n">
-        <v>7.4</v>
+        <v>2.02</v>
       </c>
       <c r="AV103" t="n">
-        <v>9.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="AW103" t="n">
-        <v>16.5</v>
+        <v>2.26</v>
       </c>
       <c r="AX103" t="n">
-        <v>25</v>
+        <v>2.34</v>
       </c>
       <c r="AY103" t="n">
-        <v>15</v>
+        <v>2.24</v>
       </c>
       <c r="AZ103" t="n">
-        <v>17</v>
+        <v>2.24</v>
       </c>
       <c r="BA103" t="n">
-        <v>28</v>
+        <v>2.34</v>
       </c>
       <c r="BB103" t="n">
-        <v>75</v>
+        <v>2.46</v>
       </c>
       <c r="BC103" t="n">
-        <v>42</v>
+        <v>2.38</v>
       </c>
       <c r="BD103" t="n">
-        <v>44</v>
+        <v>2.4</v>
       </c>
       <c r="BE103" t="n">
-        <v>75</v>
+        <v>2.46</v>
       </c>
       <c r="BF103" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="BG103" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20559,7 +20559,7 @@
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J104" t="n">
         <v>3.25</v>
@@ -20568,13 +20568,13 @@
         <v>3.55</v>
       </c>
       <c r="L104" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O104" t="n">
         <v>1.38</v>
@@ -20586,134 +20586,134 @@
         <v>2.16</v>
       </c>
       <c r="R104" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S104" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U104" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V104" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W104" t="n">
         <v>1.63</v>
       </c>
       <c r="X104" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z104" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA104" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB104" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC104" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD104" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE104" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF104" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG104" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH104" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI104" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK104" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL104" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM104" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN104" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO104" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AU104" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AV104" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AW104" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AX104" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AY104" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ104" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BA104" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BB104" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC104" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BD104" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BE104" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF104" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="BG104" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20762,13 +20762,13 @@
         <v>4.8</v>
       </c>
       <c r="L105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N105" t="n">
         <v>1.51</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1.5</v>
       </c>
       <c r="O105" t="n">
         <v>1.45</v>
@@ -20792,7 +20792,7 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W105" t="n">
         <v>1.71</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M106" t="n">
         <v>1.01</v>
@@ -21046,52 +21046,52 @@
         <v>1000</v>
       </c>
       <c r="AP106" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ106" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AR106" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS106" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="AT106" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU106" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AV106" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AW106" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="AX106" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY106" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ106" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BA106" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BB106" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="BC106" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BD106" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="BE106" t="n">
-        <v>85</v>
+        <v>1.01</v>
       </c>
       <c r="BF106" t="n">
         <v>1.01</v>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -21150,16 +21150,16 @@
         <v>5.1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
         <v>1.36</v>
@@ -21168,134 +21168,134 @@
         <v>2.48</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -21326,170 +21326,170 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G108" t="n">
         <v>2.7</v>
       </c>
       <c r="H108" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I108" t="n">
         <v>4.9</v>
       </c>
       <c r="J108" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="K108" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P108" t="n">
         <v>1.69</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -21523,7 +21523,7 @@
         <v>1.41</v>
       </c>
       <c r="G109" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H109" t="n">
         <v>8.199999999999999</v>
@@ -21532,22 +21532,22 @@
         <v>1000</v>
       </c>
       <c r="J109" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K109" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P109" t="n">
         <v>1.57</v>
@@ -21556,134 +21556,134 @@
         <v>1.01</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP109" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AR109" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AS109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AT109" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AU109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV109" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AW109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX109" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AY109" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ109" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BA109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BB109" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="BC109" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD109" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BF109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -21729,19 +21729,19 @@
         <v>3.05</v>
       </c>
       <c r="K110" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P110" t="n">
         <v>1.47</v>
@@ -21750,134 +21750,134 @@
         <v>2.9</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB110" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE110" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI110" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL110" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM110" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN110" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO110" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AP110" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AR110" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AU110" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV110" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW110" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AX110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ110" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BA110" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BB110" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BC110" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BD110" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BE110" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BF110" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BG110" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -21908,170 +21908,170 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="G111" t="n">
         <v>2.04</v>
       </c>
       <c r="H111" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I111" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J111" t="n">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="K111" t="n">
         <v>4.7</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P111" t="n">
         <v>1.46</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP111" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR111" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS111" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AT111" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AU111" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV111" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AW111" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AX111" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AY111" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ111" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BA111" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BB111" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BC111" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BD111" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BF111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH111" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
@@ -22108,7 +22108,7 @@
         <v>4.4</v>
       </c>
       <c r="H112" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="I112" t="n">
         <v>2.82</v>
@@ -22117,19 +22117,19 @@
         <v>2.86</v>
       </c>
       <c r="K112" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P112" t="n">
         <v>1.65</v>
@@ -22138,134 +22138,134 @@
         <v>1.98</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP112" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR112" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AT112" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU112" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AV112" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AW112" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AX112" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AY112" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ112" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BA112" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB112" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BC112" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BD112" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE112" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BF112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH112" t="inlineStr">
         <is>
-          <t>2026-02-27 19:07:33</t>
+          <t>2026-02-27 21:38:09</t>
         </is>
       </c>
     </row>
